--- a/13-March (Assignment).xlsx
+++ b/13-March (Assignment).xlsx
@@ -267,7 +267,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[13-March (Assignment).xlsx]13-March!PivotTable1</c:name>
+    <c:name>[12-March (Assignment).xlsx]13-March!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -500,7 +500,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[13-March (Assignment).xlsx]13-March!PivotTable3</c:name>
+    <c:name>[12-March (Assignment).xlsx]13-March!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -931,7 +931,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[13-March (Assignment).xlsx]13-March!PivotTable6</c:name>
+    <c:name>[12-March (Assignment).xlsx]13-March!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
